--- a/medicine/Enfance/Agnès_Desarthe/Agnès_Desarthe.xlsx
+++ b/medicine/Enfance/Agnès_Desarthe/Agnès_Desarthe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Agn%C3%A8s_Desarthe</t>
+          <t>Agnès_Desarthe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agnès Desarthe, née Agnès Naouri le 3 mai 1966 à Paris, est une écrivaine française, auteure de livres pour adultes et pour enfants, et traductrice.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Agn%C3%A8s_Desarthe</t>
+          <t>Agnès_Desarthe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,16 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Famille
-Agnès Desarthe est l'un des trois enfants du pédiatre Aldo Naouri. Elle a épousé le cinéaste Dante Desarthe, fils du comédien Gérard Desarthe. Ils ont quatre enfants. Son frère Laurent Naouri, chanteur d'opéra, est l'époux de Natalie Dessay. Sa sœur, Elsa Rooke, est metteuse en scène d'opéra.
-Parcours
-Agrégée d'anglais (1988)[1], elle a d'abord travaillé comme traductrice, « puis elle rencontre Geneviève Brisac, éditrice à L'École des loisirs, qui la pousse à écrire des histoires pour enfants »[2]. Elle y publie en 1992 un premier roman pour adolescents, Je ne t'aime pas, Paulus, dont Je ne t'aime toujours pas, Paulus, paru treize ans plus tard, constitue la suite, toujours à l’École des loisirs, chez qui elle a maintenant publié une trentaine de livres jeunesse.
-Outre ces nombreux romans pour la jeunesse, elle est l'auteure d'une douzaine d'ouvrages pour adultes, dont neuf romans, publiés aux Éditions de l'Olivier. Elle a obtenu le prix du Livre Inter 1996 pour son deuxième roman, Un secret sans importance. Son sixième roman Mangez-moi, publié en 2006, est traduit dans plus de 15 pays. Elle obtient le prix Renaudot des lycéens en 2010 pour son roman Dans la nuit brune. Son roman Une partie de chasse, obtient en 2012 le Goncourt des animaux[3], décerné par des membres de l'académie Goncourt. Elle reçoit le prix littéraire du Monde en 2015[4] pour Ce cœur changeant.
-En collaboration avec Geneviève Brisac, son éditrice à L'École des loisirs, elle a consacré à Virginia Woolf une émission sur France Culture. À la suite de cette émission, elles ont publié en 2004 un essai consacré à la romancière britannique, V.W, le mélange des genres.
-Parallèlement, elle poursuit son activité de traduction de livres pour la jeunesse (une trentaine d'ouvrages, dont treize romans de Loïs Lowry, mais aussi Brundibar de Maurice Sendak) et pour les adultes (six ouvrages, dont La Maison de Carlyle et La Chambre de Jacob de Virginia Woolf ainsi que Les Papiers de Puttermesser de Cynthia Ozick. Pour ce dernier ouvrage, elle a reçu deux prix de traduction en 2007, le prix Maurice-Edgar Coindreau[5] et le prix Laure-Bataillon[6].)
-Enfin, elle est l'auteure de deux pièces de théâtre[7] (Les Chevaliers, mise en scène par Gilles Cohen au théâtre du Rond-Point en 2005 et Le Kit, qui n'a pas été encore montée) ainsi que de plusieurs chansons.
-Distinction
-1er janvier 2015 : chevalier de la Légion d'honneur[8]</t>
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agnès Desarthe est l'un des trois enfants du pédiatre Aldo Naouri. Elle a épousé le cinéaste Dante Desarthe, fils du comédien Gérard Desarthe. Ils ont quatre enfants. Son frère Laurent Naouri, chanteur d'opéra, est l'époux de Natalie Dessay. Sa sœur, Elsa Rooke, est metteuse en scène d'opéra.
+</t>
         </is>
       </c>
     </row>
@@ -532,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Agn%C3%A8s_Desarthe</t>
+          <t>Agnès_Desarthe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,12 +557,95 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Parcours</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agrégée d'anglais (1988), elle a d'abord travaillé comme traductrice, « puis elle rencontre Geneviève Brisac, éditrice à L'École des loisirs, qui la pousse à écrire des histoires pour enfants ». Elle y publie en 1992 un premier roman pour adolescents, Je ne t'aime pas, Paulus, dont Je ne t'aime toujours pas, Paulus, paru treize ans plus tard, constitue la suite, toujours à l’École des loisirs, chez qui elle a maintenant publié une trentaine de livres jeunesse.
+Outre ces nombreux romans pour la jeunesse, elle est l'auteure d'une douzaine d'ouvrages pour adultes, dont neuf romans, publiés aux Éditions de l'Olivier. Elle a obtenu le prix du Livre Inter 1996 pour son deuxième roman, Un secret sans importance. Son sixième roman Mangez-moi, publié en 2006, est traduit dans plus de 15 pays. Elle obtient le prix Renaudot des lycéens en 2010 pour son roman Dans la nuit brune. Son roman Une partie de chasse, obtient en 2012 le Goncourt des animaux, décerné par des membres de l'académie Goncourt. Elle reçoit le prix littéraire du Monde en 2015 pour Ce cœur changeant.
+En collaboration avec Geneviève Brisac, son éditrice à L'École des loisirs, elle a consacré à Virginia Woolf une émission sur France Culture. À la suite de cette émission, elles ont publié en 2004 un essai consacré à la romancière britannique, V.W, le mélange des genres.
+Parallèlement, elle poursuit son activité de traduction de livres pour la jeunesse (une trentaine d'ouvrages, dont treize romans de Loïs Lowry, mais aussi Brundibar de Maurice Sendak) et pour les adultes (six ouvrages, dont La Maison de Carlyle et La Chambre de Jacob de Virginia Woolf ainsi que Les Papiers de Puttermesser de Cynthia Ozick. Pour ce dernier ouvrage, elle a reçu deux prix de traduction en 2007, le prix Maurice-Edgar Coindreau et le prix Laure-Bataillon.)
+Enfin, elle est l'auteure de deux pièces de théâtre (Les Chevaliers, mise en scène par Gilles Cohen au théâtre du Rond-Point en 2005 et Le Kit, qui n'a pas été encore montée) ainsi que de plusieurs chansons.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Agnès_Desarthe</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agn%C3%A8s_Desarthe</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Distinction</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1er janvier 2015 : chevalier de la Légion d'honneur</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Agnès_Desarthe</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agn%C3%A8s_Desarthe</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Romans pour enfants
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans pour enfants</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Je ne t'aime pas, Paulus, L'École des loisirs, 1992
 Abo, le minable homme des neiges, illustrations de Claude Boujon, L'École des loisirs, 1992
 Les Peurs de Conception, L'École des loisirs, 1992
@@ -585,80 +678,360 @@
 Dingo et le sens de la vie, illustrations d'Anaïs Vaugelade, L’École des loisirs, 2012
 Le Poulet fermier, illustrations d'Anaïs Vaugelade, L'École des loisirs, 2013
 Mes animaux (anthologie), illustrations d'Anaïs Vaugelade, L’École des loisirs, 2014
-Romans pour adultes
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Agnès_Desarthe</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agn%C3%A8s_Desarthe</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans pour adultes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Quelques minutes de bonheur absolu, Éditions de l'Olivier, 1993
 Un secret sans importance, Éditions de l'Olivier, 1996 Prix du Livre Inter 1996
 Cinq photos de ma femme, Éditions de l'Olivier, 1998
 Les Bonnes Intentions, Éditions de l'Olivier, 2000
 Le Principe de Frédelle, Éditions de l'Olivier, 2003
 Mangez-moi, Éditions de l'Olivier, 2006
-Le Remplaçant, Éditions de l'Olivier, 2009 Prix Marcel Pagnol 2009[9] et prix du roman Version Femina - Virgin Megastore 2009[10]
-Dans la nuit brune, Éditions de l'Olivier, 2010 Prix Renaudot des lycéens 2010[11]
-Une partie de chasse, Éditions de l'Olivier Prix littéraire 30 millions d'amis 2012[12]
+Le Remplaçant, Éditions de l'Olivier, 2009 Prix Marcel Pagnol 2009 et prix du roman Version Femina - Virgin Megastore 2009
+Dans la nuit brune, Éditions de l'Olivier, 2010 Prix Renaudot des lycéens 2010
+Une partie de chasse, Éditions de l'Olivier Prix littéraire 30 millions d'amis 2012
 Ce cœur changeant, Éditions de l'Olivier, 2015 Prix littéraire du Monde 2015
 La Chance de leur vie, Éditions de l'Olivier, 2018
 L'Éternel fiancé, Éditions de l'Olivier, 2021
 Le Château des Rentiers, Éditions de l'Olivier, 2023
-Essais
-V.W. Le mélange des genres, coécrit avec Geneviève Brisac, éditions de l'Olivier, 2004 ; essai consacré à Virginia Woolf
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Agnès_Desarthe</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agn%C3%A8s_Desarthe</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>V.W. Le mélange des genres, coécrit avec Geneviève Brisac, éditions de l'Olivier, 2004 ; essai consacré à Virginia Woolf
 Lois Lowry, série « Mon écrivain préféré », éditions École des loisirs, 2011 ; document jeunesse consacré à Lois Lowry
-Comment j’ai appris à lire, Éditions Stock, 2013[13]
+Comment j’ai appris à lire, Éditions Stock, 2013
 Le Roi René, Éditions Odile Jacob, 2016 ; biographie de René Urtreger
-Maurice Sendak, coécrit avec Béatrice Michielsen et Bernard Noël, série « Mon écrivain préféré », éditions École des loisirs, 2016 ; document jeunesse consacré à Maurice Sendak
-Nouvelles
-Ce qui est arrivé aux Kempinski (recueil), Éditions de l'Olivier, 2014
-Participation
-Collectif, La Rencontre, Éditions Prisma, 2010 ; recueil de nouvelles Avec Marek Halter, Camilla Läckberg, Didier Van Cauwelaert, Éliette Abécassis et Claudie Gallay.
-Collectif, Metamorphosis, photographies de Sarah Moon, Actes Sud, Beaux Arts - Hors collection et Hermès, octobre 2014, 146 p.  (ISBN 978-2-330-03727-7)
-Théâtre
-Les Chevaliers, mise en scène par Gilles Cohen, avec Marie Vialle, Pierre Aussedat, Philippe Hérisson, théâtre du Rond-Point, 2005 ; reprise en 2006
-Le Kit, en attente de montage[réf. nécessaire]
-Préface
-Virginia Woolf, Journal intégral, 1915-1941, coll. « La Cosmopolite », Stock, 2008 ; traduit par Marie-Ange Dutartre et Colette-Marie Huet  (ISBN 978-2-234-06030-2)
-Traductions
-Agnès Desarthe a traduit de l'anglais au français plus d'une trentaine d'ouvrages[14] : en littérature jeunesse, une douzaine de l'auteure Loïs Lowry, trois romans de Anne Fine, deux albums de Maurice Sendak et deux d'Allen Say ; en littérature pour adultes, elle a traduit deux ouvrages de Virginia Woolf (auteure sujet de son essai V.W. Le mélange des genres coécrit avec Geneviève Brisac), et deux ouvrages de Cynthia Ozick, dont Les Papiers de Puttermesser, traduction qui lui a valu deux prix littéraires en 2007.
+Maurice Sendak, coécrit avec Béatrice Michielsen et Bernard Noël, série « Mon écrivain préféré », éditions École des loisirs, 2016 ; document jeunesse consacré à Maurice Sendak</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Agnès_Desarthe</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agn%C3%A8s_Desarthe</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Ce qui est arrivé aux Kempinski (recueil), Éditions de l'Olivier, 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Agnès_Desarthe</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agn%C3%A8s_Desarthe</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Participation</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Collectif, La Rencontre, Éditions Prisma, 2010 ; recueil de nouvelles Avec Marek Halter, Camilla Läckberg, Didier Van Cauwelaert, Éliette Abécassis et Claudie Gallay.
+Collectif, Metamorphosis, photographies de Sarah Moon, Actes Sud, Beaux Arts - Hors collection et Hermès, octobre 2014, 146 p.  (ISBN 978-2-330-03727-7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Agnès_Desarthe</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agn%C3%A8s_Desarthe</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Les Chevaliers, mise en scène par Gilles Cohen, avec Marie Vialle, Pierre Aussedat, Philippe Hérisson, théâtre du Rond-Point, 2005 ; reprise en 2006
+Le Kit, en attente de montage[réf. nécessaire]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Agnès_Desarthe</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agn%C3%A8s_Desarthe</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Préface</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Virginia Woolf, Journal intégral, 1915-1941, coll. « La Cosmopolite », Stock, 2008 ; traduit par Marie-Ange Dutartre et Colette-Marie Huet  (ISBN 978-2-234-06030-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Agnès_Desarthe</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agn%C3%A8s_Desarthe</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Traductions</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agnès Desarthe a traduit de l'anglais au français plus d'une trentaine d'ouvrages : en littérature jeunesse, une douzaine de l'auteure Loïs Lowry, trois romans de Anne Fine, deux albums de Maurice Sendak et deux d'Allen Say ; en littérature pour adultes, elle a traduit deux ouvrages de Virginia Woolf (auteure sujet de son essai V.W. Le mélange des genres coécrit avec Geneviève Brisac), et deux ouvrages de Cynthia Ozick, dont Les Papiers de Puttermesser, traduction qui lui a valu deux prix littéraires en 2007.
 Elle a traduit aussi des nouvelles d'Alice Munro, prix Nobel de littérature 2013, publiées sous le titre Un peu, beaucoup, passionnément, à la folie, pas du tout (éditions de l'Olivier, 2019) ainsi que l'essai de Philippe Sands, La Dernière Colonie (The last colony. A tale of exile, justice and Britain's colonial legacy, Albin Michel, 2022).
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Agn%C3%A8s_Desarthe</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Agn%C3%A8s_Desarthe</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Agnès_Desarthe</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agn%C3%A8s_Desarthe</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>En tant qu'auteur
-Prix du Livre Inter 1996 pour Un secret sans importance
-Prix Marcel-Pagnol 2009 pour Le Remplaçant[9]
-Prix du roman Version Femina - Virgin Megastore 2009 pour Le Remplaçant[10]
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>En tant qu'auteur</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Prix du Livre Inter 1996 pour Un secret sans importance
+Prix Marcel-Pagnol 2009 pour Le Remplaçant
+Prix du roman Version Femina - Virgin Megastore 2009 pour Le Remplaçant
 Prix Renaudot des lycéens 2010 pour Dans la nuit brune
-Prix littéraire 30 millions d'amis appelé Goncourt des animaux 2012 pour Une partie de chasse[3]
+Prix littéraire 30 millions d'amis appelé Goncourt des animaux 2012 pour Une partie de chasse
 Prix Anna-de-Noailles de l’Académie française 2014 pour Comment j’ai appris à lire
-Prix littéraire du Monde 2015 pour Ce cœur changeant[4]
-En tant que traductrice
-Prix Maurice-Edgar Coindreau 2007[5] pour Les Papiers de Puttermesser de Cynthia Ozick
-Prix Laure Bataillon 2007[6] pour Les Papiers de Puttermesser de Cynthia Ozick</t>
+Prix littéraire du Monde 2015 pour Ce cœur changeant</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Agnès_Desarthe</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agn%C3%A8s_Desarthe</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>En tant que traductrice</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Prix Maurice-Edgar Coindreau 2007 pour Les Papiers de Puttermesser de Cynthia Ozick
+Prix Laure Bataillon 2007 pour Les Papiers de Puttermesser de Cynthia Ozick</t>
         </is>
       </c>
     </row>
